--- a/new_data/GSPC/GSPC_2019/GSPC_2019_list.xlsx
+++ b/new_data/GSPC/GSPC_2019/GSPC_2019_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\GSPC\GSPC_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB83543-1FA4-4C17-AA4B-9F7EB371F244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE93F1F-6B6A-4C99-B47A-98DCDFFADE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Volume</t>
   </si>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>bbands_down_L2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIAS6_L1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIas24_L1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,24 +603,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="10"/>
+    <col min="8" max="8" width="16.75" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -633,7 +641,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -664,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -703,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -734,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -755,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -789,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -807,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -825,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -838,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -856,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -874,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -895,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -908,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -934,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -947,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -960,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -973,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G25" s="10">
         <v>1</v>
       </c>
@@ -1027,12 +1035,28 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G26" s="10">
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/new_data/GSPC/GSPC_2019/GSPC_2019_list.xlsx
+++ b/new_data/GSPC/GSPC_2019/GSPC_2019_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\GSPC\GSPC_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE93F1F-6B6A-4C99-B47A-98DCDFFADE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5B9286-45AD-43F3-95CC-B8836A32069D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -124,20 +124,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bbands_down_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bbands_down_L2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BIAS6_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIas24_L1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>BBands_down_L1</t>
+  </si>
+  <si>
+    <t>BIAS_6_L1</t>
+  </si>
+  <si>
+    <t>BIAS_24_L1</t>
   </si>
 </sst>
 </file>
@@ -287,7 +284,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -606,21 +606,21 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="10"/>
-    <col min="8" max="8" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="10"/>
+    <col min="8" max="8" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>23</v>
@@ -641,7 +641,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -903,7 +903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -929,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -942,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -955,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -968,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1027,36 +1027,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G28" s="10">
         <v>1</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="12" t="s">
         <v>31</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
